--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.119324666666667</v>
+        <v>4.077011333333332</v>
       </c>
       <c r="H2">
-        <v>9.357974</v>
+        <v>12.231034</v>
       </c>
       <c r="I2">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044627</v>
       </c>
       <c r="J2">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044628</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N2">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q2">
-        <v>13.16436527684622</v>
+        <v>15.30076804128977</v>
       </c>
       <c r="R2">
-        <v>118.479287491616</v>
+        <v>137.706912371608</v>
       </c>
       <c r="S2">
-        <v>0.6490940804129484</v>
+        <v>0.6660664371320496</v>
       </c>
       <c r="T2">
-        <v>0.6490940804129484</v>
+        <v>0.6660664371320496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.119324666666667</v>
+        <v>4.077011333333332</v>
       </c>
       <c r="H3">
-        <v>9.357974</v>
+        <v>12.231034</v>
       </c>
       <c r="I3">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044627</v>
       </c>
       <c r="J3">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.889343</v>
       </c>
       <c r="O3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q3">
-        <v>4.044041185675778</v>
+        <v>5.285631830073554</v>
       </c>
       <c r="R3">
-        <v>36.396370671082</v>
+        <v>47.57068647066199</v>
       </c>
       <c r="S3">
-        <v>0.1993991460556896</v>
+        <v>0.2300918458177006</v>
       </c>
       <c r="T3">
-        <v>0.1993991460556896</v>
+        <v>0.2300918458177006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.119324666666667</v>
+        <v>4.077011333333332</v>
       </c>
       <c r="H4">
-        <v>9.357974</v>
+        <v>12.231034</v>
       </c>
       <c r="I4">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044627</v>
       </c>
       <c r="J4">
-        <v>0.9631533634040845</v>
+        <v>0.9715624748044628</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N4">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q4">
-        <v>2.325437823052</v>
+        <v>1.732172625117777</v>
       </c>
       <c r="R4">
-        <v>20.928940407468</v>
+        <v>15.58955362606</v>
       </c>
       <c r="S4">
-        <v>0.1146601369354466</v>
+        <v>0.07540419185471248</v>
       </c>
       <c r="T4">
-        <v>0.1146601369354466</v>
+        <v>0.07540419185471249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.358001</v>
       </c>
       <c r="I5">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="J5">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N5">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q5">
-        <v>0.5036192591982223</v>
+        <v>0.4478517727568889</v>
       </c>
       <c r="R5">
-        <v>4.532573332784</v>
+        <v>4.030665954812</v>
       </c>
       <c r="S5">
-        <v>0.024831905910608</v>
+        <v>0.01949569027113415</v>
       </c>
       <c r="T5">
-        <v>0.024831905910608</v>
+        <v>0.01949569027113415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.358001</v>
       </c>
       <c r="I6">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="J6">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.889343</v>
       </c>
       <c r="O6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q6">
         <v>0.1547098537047778</v>
@@ -818,10 +818,10 @@
         <v>1.392388683343</v>
       </c>
       <c r="S6">
-        <v>0.007628263733911094</v>
+        <v>0.006734762645135534</v>
       </c>
       <c r="T6">
-        <v>0.007628263733911094</v>
+        <v>0.006734762645135535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.358001</v>
       </c>
       <c r="I7">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="J7">
-        <v>0.03684663659591549</v>
+        <v>0.02843752519553723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N7">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q7">
-        <v>0.088962532498</v>
+        <v>0.0507004993988889</v>
       </c>
       <c r="R7">
-        <v>0.800662792482</v>
+        <v>0.4563044945900001</v>
       </c>
       <c r="S7">
-        <v>0.004386466951396406</v>
+        <v>0.002207072279267553</v>
       </c>
       <c r="T7">
-        <v>0.004386466951396406</v>
+        <v>0.002207072279267553</v>
       </c>
     </row>
   </sheetData>
